--- a/biology/Biologie cellulaire et moléculaire/ADCY9/ADCY9.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/ADCY9/ADCY9.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'ADCY9 est une adénylate cyclase. Son gène est ADCY9 porté sur le chromosome 16 humain.
 </t>
@@ -511,10 +523,12 @@
           <t>Rôles</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est exprimé dans tout l'organisme, et particulièrement, dans le muscle squelettique, le cœur et le cerveau[5].
-Comme les adénylate cyclase, il permet la production de l'AMP cyclique à partir d'ATP. Son activité est inhibée par le système calcium-calcineurine et la protéine kinase C[6]. Elle est également modulée par une glycosylation[6].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est exprimé dans tout l'organisme, et particulièrement, dans le muscle squelettique, le cœur et le cerveau.
+Comme les adénylate cyclase, il permet la production de l'AMP cyclique à partir d'ATP. Son activité est inhibée par le système calcium-calcineurine et la protéine kinase C. Elle est également modulée par une glycosylation.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>En médecine</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Certains variants du gène sont associés avec l'obésité[7]. D'autres sont associées avec une diminution du risque de survenue de maladies cardio-vasculaires en cas d'inhibition du CETP par le dalcetrapib[8], probablement par la diminution de la prolifération des macrophages dans la paroi artérielle et en modulant la fonction endothéliale[9]. Cet effet n'est cependant pas retrouvé avec un médicament de la même classe, l'anacetrapib[10].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Certains variants du gène sont associés avec l'obésité. D'autres sont associées avec une diminution du risque de survenue de maladies cardio-vasculaires en cas d'inhibition du CETP par le dalcetrapib, probablement par la diminution de la prolifération des macrophages dans la paroi artérielle et en modulant la fonction endothéliale. Cet effet n'est cependant pas retrouvé avec un médicament de la même classe, l'anacetrapib.
 </t>
         </is>
       </c>
